--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\persian-politics-news-sentiment-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0180E7EA-982E-46DC-ACEB-0303161C8530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560DDB66-BF27-4A6F-90DA-653786884127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3132" yWindow="1092" windowWidth="17280" windowHeight="12348" xr2:uid="{CAA20A04-C137-4271-BD3A-81D0F7AFC8AB}"/>
+    <workbookView xWindow="1260" yWindow="1812" windowWidth="17280" windowHeight="12348" xr2:uid="{CAA20A04-C137-4271-BD3A-81D0F7AFC8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25AE606-FA12-46B0-934B-1743874185A0}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.5"/>
@@ -1044,10 +1044,18 @@
       <c r="B27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="C27" s="2">
+        <v>30263</v>
+      </c>
+      <c r="D27" s="2">
+        <v>579</v>
+      </c>
+      <c r="E27" s="2">
+        <v>619</v>
+      </c>
+      <c r="F27" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A28" s="2" t="s">
@@ -1056,10 +1064,18 @@
       <c r="B28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="C28" s="2">
+        <v>5400</v>
+      </c>
+      <c r="D28" s="2">
+        <v>904</v>
+      </c>
+      <c r="E28" s="2">
+        <v>183</v>
+      </c>
+      <c r="F28" s="2">
+        <v>536</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
@@ -1068,10 +1084,18 @@
       <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="C29" s="2">
+        <v>13835</v>
+      </c>
+      <c r="D29" s="2">
+        <v>988</v>
+      </c>
+      <c r="E29" s="2">
+        <v>89</v>
+      </c>
+      <c r="F29" s="2">
+        <v>318</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
@@ -1100,10 +1124,18 @@
       <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="C31" s="2">
+        <v>65578</v>
+      </c>
+      <c r="D31" s="2">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2">
+        <v>357</v>
+      </c>
+      <c r="F31" s="2">
+        <v>421</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A32" s="2" t="s">
@@ -1112,10 +1144,18 @@
       <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="C32" s="2">
+        <v>6592</v>
+      </c>
+      <c r="D32" s="2">
+        <v>81</v>
+      </c>
+      <c r="E32" s="2">
+        <v>17</v>
+      </c>
+      <c r="F32" s="2">
+        <v>42</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33" s="2" t="s">
@@ -1144,10 +1184,18 @@
       <c r="B34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="C34" s="2">
+        <v>39440</v>
+      </c>
+      <c r="D34" s="2">
+        <v>723</v>
+      </c>
+      <c r="E34" s="2">
+        <v>299</v>
+      </c>
+      <c r="F34" s="2">
+        <v>619</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
@@ -1156,10 +1204,18 @@
       <c r="B35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="C35" s="2">
+        <v>9033</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1084</v>
+      </c>
+      <c r="E35" s="2">
+        <v>226</v>
+      </c>
+      <c r="F35" s="2">
+        <v>344</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A36" s="2" t="s">
@@ -1208,10 +1264,18 @@
       <c r="B38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="C38" s="2">
+        <v>12400</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45</v>
+      </c>
+      <c r="E38" s="2">
+        <v>340</v>
+      </c>
+      <c r="F38" s="2">
+        <v>533</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A39" s="2" t="s">
@@ -1322,10 +1386,18 @@
       <c r="B44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="C44" s="2">
+        <v>597</v>
+      </c>
+      <c r="D44" s="2">
+        <v>48</v>
+      </c>
+      <c r="E44" s="2">
+        <v>86</v>
+      </c>
+      <c r="F44" s="2">
+        <v>315</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
@@ -1334,10 +1406,18 @@
       <c r="B45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="C45" s="2">
+        <v>900</v>
+      </c>
+      <c r="D45" s="2">
+        <v>26</v>
+      </c>
+      <c r="E45" s="2">
+        <v>334</v>
+      </c>
+      <c r="F45" s="2">
+        <v>482</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
@@ -1450,9 +1530,15 @@
       <c r="C51" s="2">
         <v>899</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="D51" s="2">
+        <v>62</v>
+      </c>
+      <c r="E51" s="2">
+        <v>66</v>
+      </c>
+      <c r="F51" s="2">
+        <v>526</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A52" s="2" t="s">
@@ -1464,9 +1550,15 @@
       <c r="C52" s="2">
         <v>950</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="D52" s="2">
+        <v>12</v>
+      </c>
+      <c r="E52" s="2">
+        <v>116</v>
+      </c>
+      <c r="F52" s="2">
+        <v>365</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A53" s="2" t="s">
@@ -1554,19 +1646,19 @@
       <c r="B57" s="5"/>
       <c r="C57" s="4">
         <f>SUM(C2:C56)</f>
-        <v>285403</v>
+        <v>469441</v>
       </c>
       <c r="D57" s="4">
         <f>SUM(D2:D56)</f>
-        <v>33617</v>
+        <v>38233</v>
       </c>
       <c r="E57" s="4">
         <f>SUM(E2:E56)</f>
-        <v>18282</v>
+        <v>21014</v>
       </c>
       <c r="F57" s="4">
         <f>SUM(F2:F56)</f>
-        <v>37684</v>
+        <v>42385</v>
       </c>
     </row>
   </sheetData>
